--- a/김가인/분석일정표.xlsx
+++ b/김가인/분석일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>해당 주차에 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,20 @@
   </si>
   <si>
     <t>PPT 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차
+(7/17~7/21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차
+(7/24~7/28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 추가로인한 추가분석 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,13 +316,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +376,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -363,7 +394,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -691,22 +734,22 @@
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="4" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
@@ -719,140 +762,169 @@
       <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="E11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -861,9 +933,11 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="6" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
